--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/activity-rule.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/activity-rule.xlsx
@@ -252,102 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22db3b09-4014-46aa-99c2-fa4cf46968d7</t>
-  </si>
-  <si>
-    <t>9dd10c5a-11fb-40f6-9d7d-d6ce267e637c</t>
-  </si>
-  <si>
-    <t>0e67096a-435d-4ea8-bb27-afc2f667f792</t>
-  </si>
-  <si>
-    <t>cc3a5675-8249-463c-a628-4d250b7cf675</t>
-  </si>
-  <si>
-    <t>1ddedc30-5a3b-4072-b10c-bcd7ec8b833e</t>
-  </si>
-  <si>
-    <t>e68cb37c-2942-41e8-9b30-57a65164b555</t>
-  </si>
-  <si>
-    <t>008cfeef-12f1-4fa9-8c30-4fc60d45aa14</t>
-  </si>
-  <si>
-    <t>7c5c902a-ea1b-41ec-9202-c28528295d95</t>
-  </si>
-  <si>
-    <t>d9577bf5-1de8-492f-975f-7d9d1dbe4974</t>
-  </si>
-  <si>
-    <t>23a1229e-cb66-4d92-865d-0435a19dd317</t>
-  </si>
-  <si>
-    <t>ae920137-c0cf-4831-b349-721300d59f23</t>
-  </si>
-  <si>
-    <t>503a6113-a79d-49eb-8ce9-f6f1009fbdd7</t>
-  </si>
-  <si>
-    <t>4fbd90fb-1954-4ce4-9342-fa6df3d71ea7</t>
-  </si>
-  <si>
-    <t>2322ddc0-bbb0-4301-85f5-9014acac5590</t>
-  </si>
-  <si>
-    <t>4eaf4f09-13d9-4c42-a722-ac56bc86a1eb</t>
-  </si>
-  <si>
-    <t>ec261b24-2036-47d5-acbb-67178b7ad85b</t>
-  </si>
-  <si>
-    <t>fb13b9c8-44e0-4ba3-8efe-ca20db6c9efd</t>
-  </si>
-  <si>
-    <t>3132af52-d063-46ea-983a-38a1b50f0e6d</t>
-  </si>
-  <si>
-    <t>2bae5808-f6d8-4c05-8929-7778dca97368</t>
-  </si>
-  <si>
-    <t>6bbeaa4a-a011-4454-a977-841bff20bf41</t>
-  </si>
-  <si>
-    <t>a9883705-30d8-4aac-a5f8-7a5a68cd979a</t>
-  </si>
-  <si>
-    <t>b138191a-d2ac-46e8-8e97-29e9ef5615f3</t>
-  </si>
-  <si>
-    <t>2637098c-bfc0-4408-ad63-e1922126ea82</t>
-  </si>
-  <si>
-    <t>d3b079d3-4a44-4c4b-8c25-88e5f0b542b3</t>
-  </si>
-  <si>
-    <t>6eb99ca9-f2fa-45ca-bfce-b2fd33c6a0bf</t>
-  </si>
-  <si>
-    <t>9f50ef0c-f42c-4fe2-b7b8-bbfa14339a39</t>
-  </si>
-  <si>
-    <t>89b2fa4c-4f0b-453a-a43d-f9ac3ec0dbb9</t>
-  </si>
-  <si>
-    <t>0cd3e28b-ade4-4734-a62f-0097ca8fb1c0</t>
-  </si>
-  <si>
-    <t>1003741b-18b7-4636-9470-46bb93214140</t>
-  </si>
-  <si>
-    <t>a1a8b043-08f7-4f51-9912-8c1edf9f097f</t>
-  </si>
-  <si>
-    <t>38bd77c5-4f00-4e0f-833c-e4820d84f79b</t>
-  </si>
-  <si>
-    <t>87a66a2a-03f4-4204-9f06-fc8bda7f33e8</t>
-  </si>
-  <si>
     <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,6 +334,102 @@
   <si>
     <t>$zo.phase == "PENDING" and $zn.flowEnd == false</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01cb9887-e309-409e-bfc9-49030dcf4bf2</t>
+  </si>
+  <si>
+    <t>5ec97a73-4bde-4f69-9c43-cc144b65ca6f</t>
+  </si>
+  <si>
+    <t>ce255ae6-c74c-4ad9-aeb8-322897ac8772</t>
+  </si>
+  <si>
+    <t>662b1809-9fc1-45b2-84ce-610c87bc337a</t>
+  </si>
+  <si>
+    <t>52487314-b973-4e01-8cc6-ba574ce2eaa3</t>
+  </si>
+  <si>
+    <t>f882fb0a-4e1c-4f28-92db-d710cd202602</t>
+  </si>
+  <si>
+    <t>7f7411f1-5166-4e9f-a415-8c1ad620b61f</t>
+  </si>
+  <si>
+    <t>b6f86eb6-2343-4d59-9070-c598869d9068</t>
+  </si>
+  <si>
+    <t>55a4344c-31ce-4880-a86b-5d02f0c673c8</t>
+  </si>
+  <si>
+    <t>24b78957-1423-4c0a-a80e-2a8e04c2de10</t>
+  </si>
+  <si>
+    <t>77cf92d2-adb2-44b8-bb05-a8c7c10162d5</t>
+  </si>
+  <si>
+    <t>f0b130f6-e226-4001-97a5-d333d96ca44f</t>
+  </si>
+  <si>
+    <t>b79437d3-a916-48e1-92ce-1aef0c3ce04d</t>
+  </si>
+  <si>
+    <t>59d31139-8ed9-432a-a006-07b47d333bfc</t>
+  </si>
+  <si>
+    <t>a29699cd-3d5b-41af-8976-ae4e5b7c8fcc</t>
+  </si>
+  <si>
+    <t>d4351cdc-4d8e-4fb2-9430-a0e6ec4005aa</t>
+  </si>
+  <si>
+    <t>c6738c99-dcf9-4227-bd49-326a591e2f83</t>
+  </si>
+  <si>
+    <t>d3e8766d-4b7b-4ea3-9306-9d83c7443bdf</t>
+  </si>
+  <si>
+    <t>c8a55e33-f182-43bb-a306-b5ace7faa289</t>
+  </si>
+  <si>
+    <t>9007b022-e16e-4cf4-839d-6c618d54bf40</t>
+  </si>
+  <si>
+    <t>dcd20c5a-72ae-46c9-bd1d-d33b0b6e8d24</t>
+  </si>
+  <si>
+    <t>0333968e-90b9-4421-9025-0d7c7dfcb527</t>
+  </si>
+  <si>
+    <t>5e103476-da3f-44a3-9e70-9dc67b64c0ee</t>
+  </si>
+  <si>
+    <t>38cb7063-fa7f-4a23-93f3-2204abd1c114</t>
+  </si>
+  <si>
+    <t>1b7f24f1-f065-4664-979b-03a4c8a0d40d</t>
+  </si>
+  <si>
+    <t>4a72c243-e6cc-4138-945a-b218ec437c4b</t>
+  </si>
+  <si>
+    <t>9a4cc85d-595f-457f-8a74-d7131acbae3a</t>
+  </si>
+  <si>
+    <t>5c93cca9-28a1-47f1-bc32-08878b63dd4b</t>
+  </si>
+  <si>
+    <t>bf9385a6-ca99-46a5-8c1b-dd799c22906c</t>
+  </si>
+  <si>
+    <t>0d045080-e32f-46e9-96a1-30be38c693a1</t>
+  </si>
+  <si>
+    <t>0cad416a-6533-47a2-b480-46749813bf98</t>
+  </si>
+  <si>
+    <t>aa37d072-c767-471d-bb83-4f23cdaaf785</t>
   </si>
 </sst>
 </file>
@@ -940,7 +940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,22 +950,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="92.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>35</v>
@@ -1128,7 +1128,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="b">
@@ -1136,17 +1136,17 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>41</v>
@@ -1170,7 +1170,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="b">
@@ -1178,17 +1178,17 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>35</v>
@@ -1212,7 +1212,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11" t="b">
@@ -1220,17 +1220,17 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>35</v>
@@ -1254,7 +1254,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11" t="b">
@@ -1262,17 +1262,17 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>35</v>
@@ -1296,7 +1296,7 @@
         <v>40</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="b">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>35</v>
@@ -1338,7 +1338,7 @@
         <v>40</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="b">
@@ -1346,17 +1346,17 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>41</v>
@@ -1380,7 +1380,7 @@
         <v>40</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="b">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>41</v>
@@ -1413,7 +1413,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>58</v>
@@ -1422,7 +1422,7 @@
         <v>40</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11" t="b">
@@ -1430,17 +1430,17 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>41</v>
@@ -1464,7 +1464,7 @@
         <v>40</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>63</v>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>41</v>
@@ -1508,7 +1508,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="b">
@@ -1516,17 +1516,17 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>41</v>
@@ -1550,7 +1550,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11" t="b">
@@ -1558,17 +1558,17 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>64</v>
@@ -1580,19 +1580,19 @@
         <v>1005</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="b">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>64</v>
@@ -1625,7 +1625,7 @@
         <v>72</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>58</v>
@@ -1634,7 +1634,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11" t="b">
@@ -1642,17 +1642,17 @@
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>64</v>
@@ -1676,7 +1676,7 @@
         <v>40</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>63</v>
@@ -1686,17 +1686,17 @@
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>64</v>
@@ -1720,7 +1720,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11" t="b">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>64</v>
@@ -1762,7 +1762,7 @@
         <v>40</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11" t="b">
@@ -1770,20 +1770,20 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>36</v>
@@ -1792,19 +1792,19 @@
         <v>1005</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11" t="b">
@@ -1812,20 +1812,20 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>36</v>
@@ -1846,7 +1846,7 @@
         <v>40</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11" t="b">
@@ -1854,20 +1854,20 @@
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>59</v>
@@ -1888,7 +1888,7 @@
         <v>40</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>63</v>
@@ -1898,20 +1898,20 @@
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>36</v>
@@ -1932,7 +1932,7 @@
         <v>40</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11" t="b">
@@ -1940,20 +1940,20 @@
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>36</v>
@@ -1974,7 +1974,7 @@
         <v>40</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11" t="b">
@@ -1982,20 +1982,20 @@
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>36</v>
@@ -2004,19 +2004,19 @@
         <v>1005</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11" t="b">
@@ -2024,20 +2024,20 @@
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>36</v>
@@ -2058,7 +2058,7 @@
         <v>40</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11" t="b">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>59</v>
@@ -2100,7 +2100,7 @@
         <v>40</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K28" s="11" t="s">
         <v>63</v>
@@ -2110,20 +2110,20 @@
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>36</v>
@@ -2144,7 +2144,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11" t="b">
@@ -2152,20 +2152,20 @@
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>36</v>
@@ -2186,7 +2186,7 @@
         <v>40</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11" t="b">
@@ -2194,20 +2194,20 @@
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>36</v>
@@ -2216,19 +2216,19 @@
         <v>1005</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11" t="b">
@@ -2236,20 +2236,20 @@
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>36</v>
@@ -2270,7 +2270,7 @@
         <v>40</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11" t="b">
@@ -2278,20 +2278,20 @@
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>59</v>
@@ -2312,7 +2312,7 @@
         <v>40</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>63</v>
@@ -2322,20 +2322,20 @@
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>36</v>
@@ -2356,7 +2356,7 @@
         <v>40</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11" t="b">
@@ -2364,20 +2364,20 @@
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>36</v>
@@ -2398,7 +2398,7 @@
         <v>40</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="11" t="b">
@@ -2406,20 +2406,20 @@
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>36</v>
@@ -2440,7 +2440,7 @@
         <v>40</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11" t="b">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="12" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
